--- a/data/tehilim-data/99.xlsx
+++ b/data/tehilim-data/99.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="156">
   <si>
     <t>original</t>
   </si>
@@ -22,58 +22,55 @@
     <t>א</t>
   </si>
   <si>
-    <t>יְהוָ֣ה</t>
+    <t>צבָא</t>
   </si>
   <si>
-    <t>Господь</t>
+    <t>господь</t>
   </si>
   <si>
-    <t>מָלָ֣ךְ</t>
+    <t>מֶלֶךְ</t>
   </si>
   <si>
-    <t>царствует</t>
+    <t>царь</t>
   </si>
   <si>
-    <t>יִרְגְּז֣וּ</t>
+    <t>הָאָרֶץ</t>
   </si>
   <si>
-    <t>да трепещут</t>
+    <t>земля</t>
   </si>
   <si>
-    <t>עַמִּ֑ים</t>
+    <t>יֵשֵׁב</t>
+  </si>
+  <si>
+    <t>восседает</t>
+  </si>
+  <si>
+    <t>כְּרוּבִים</t>
+  </si>
+  <si>
+    <t>херувим</t>
+  </si>
+  <si>
+    <t>רָגְזוּ</t>
+  </si>
+  <si>
+    <t>задрожат</t>
+  </si>
+  <si>
+    <t>עַמִּים</t>
   </si>
   <si>
     <t>народы</t>
   </si>
   <si>
-    <t>יֹשֵׁ֥ב</t>
-  </si>
-  <si>
-    <t>Он сидит</t>
-  </si>
-  <si>
-    <t>כְּ֝רוּבִ֗ים</t>
-  </si>
-  <si>
-    <t>на херувимах</t>
-  </si>
-  <si>
-    <t>תָּנֽוּט</t>
-  </si>
-  <si>
-    <t>да колеблется</t>
-  </si>
-  <si>
-    <t>הָאָֽרֶץ׃</t>
-  </si>
-  <si>
-    <t>земля</t>
-  </si>
-  <si>
     <t>ב</t>
   </si>
   <si>
-    <t>יְ֭הוָה</t>
+    <t>יְהֹוָה</t>
+  </si>
+  <si>
+    <t>наш Егова</t>
   </si>
   <si>
     <t>בְּצִיּ֣וֹן</t>
@@ -82,22 +79,22 @@
     <t>на Сионе</t>
   </si>
   <si>
-    <t>גָּד֑וֹל</t>
+    <t>גָּדוֹל</t>
   </si>
   <si>
     <t>велик</t>
   </si>
   <si>
-    <t>וְרָ֝֗ם</t>
+    <t>וְרוּם</t>
   </si>
   <si>
-    <t>и высок</t>
+    <t>и возвышен</t>
   </si>
   <si>
-    <t>ה֣וּא</t>
+    <t>הוּא</t>
   </si>
   <si>
-    <t>Он</t>
+    <t>он</t>
   </si>
   <si>
     <t>עַל־</t>
@@ -139,22 +136,10 @@
     <t>великое</t>
   </si>
   <si>
-    <t>וְנ֖וֹרָ֣א</t>
+    <t>וְנוֹרָא</t>
   </si>
   <si>
-    <t>и страшное</t>
-  </si>
-  <si>
-    <t>קָד֣וֹשׁ</t>
-  </si>
-  <si>
-    <t>святое</t>
-  </si>
-  <si>
-    <t>הֽוּא׃</t>
-  </si>
-  <si>
-    <t>оно</t>
+    <t>внушающее трепет</t>
   </si>
   <si>
     <t>ד</t>
@@ -226,7 +211,7 @@
     <t>וְֽהִֽשְׁתַּחֲווּ֮</t>
   </si>
   <si>
-    <t>и поклоняйтесь</t>
+    <t>и падайте ниц</t>
   </si>
   <si>
     <t>לַהֲדֹ֪ם</t>
@@ -247,6 +232,12 @@
     <t>свят</t>
   </si>
   <si>
+    <t>הֽוּא׃</t>
+  </si>
+  <si>
+    <t>Он</t>
+  </si>
+  <si>
     <t>ו</t>
   </si>
   <si>
@@ -265,7 +256,7 @@
     <t>בְּֽכֹהֲנָ֫יו</t>
   </si>
   <si>
-    <t>среди священников Его</t>
+    <t>в священнослужителях</t>
   </si>
   <si>
     <t>וּֽשְׁמוּאֵ֥ל</t>
@@ -289,7 +280,7 @@
     <t>קֹרִ֥אים</t>
   </si>
   <si>
-    <t>взывающие</t>
+    <t>взывали</t>
   </si>
   <si>
     <t>אֶל־</t>
@@ -319,61 +310,64 @@
     <t>ז</t>
   </si>
   <si>
-    <t>בְּעַמּ֣וּד</t>
+    <t>בְּעַמּוּד</t>
   </si>
   <si>
-    <t>В столпе</t>
+    <t>в столпе</t>
   </si>
   <si>
-    <t>עָ֭נָן</t>
+    <t>עָנָן</t>
   </si>
   <si>
-    <t>облачном</t>
+    <t>облака</t>
   </si>
   <si>
-    <t>יְדַבֵּ֣ר</t>
+    <t>יְדַבֵּר</t>
   </si>
   <si>
-    <t>говорил</t>
+    <t>разговаривал</t>
   </si>
   <si>
-    <t>אֲלֵיהֶ֑ם</t>
+    <t>אֲלֵיהֶם</t>
   </si>
   <si>
     <t>к ним</t>
   </si>
   <si>
-    <t>שָׁמְר֣וּ</t>
+    <t>שָׁמְרוּ</t>
   </si>
   <si>
-    <t>соблюдали</t>
+    <t>хранили</t>
   </si>
   <si>
-    <t>עֵ֝דֹתָ֗יו</t>
+    <t>עֵדוֹתָיו</t>
   </si>
   <si>
-    <t>Его заповеди</t>
+    <t>свидетельства его</t>
   </si>
   <si>
-    <t>וְחֹ֣ק</t>
+    <t>וְחֹק</t>
   </si>
   <si>
     <t>и устав</t>
   </si>
   <si>
-    <t>נָֽתַן־</t>
+    <t>נָתַן</t>
   </si>
   <si>
-    <t>который дал</t>
+    <t>дал</t>
   </si>
   <si>
-    <t>לָֽמוֹ׃</t>
+    <t>לָמוֹ</t>
   </si>
   <si>
     <t>им</t>
   </si>
   <si>
     <t>ח</t>
+  </si>
+  <si>
+    <t>יְ֭הוָה</t>
   </si>
   <si>
     <t>Господи</t>
@@ -436,10 +430,19 @@
     <t>ט</t>
   </si>
   <si>
-    <t>רֽוֹמְמ֥וּ</t>
+    <t>רוֹמְמוּ</t>
   </si>
   <si>
-    <t>אֱלֹהֵ֑ינוּ</t>
+    <t>возвышайте</t>
+  </si>
+  <si>
+    <t>нашего</t>
+  </si>
+  <si>
+    <t>אֱלֹהֵינוּ</t>
+  </si>
+  <si>
+    <t>бога</t>
   </si>
   <si>
     <t>וְ֝הִֽשְׁתַּחֲווּ֗</t>
@@ -466,6 +469,12 @@
     <t>קָד֖וֹשׁ</t>
   </si>
   <si>
+    <t>יְהוָ֣ה</t>
+  </si>
+  <si>
+    <t>Господь</t>
+  </si>
+  <si>
     <t>אֱלֹהֵֽינוּ</t>
   </si>
   <si>
@@ -476,7 +485,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -484,12 +493,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -506,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -524,6 +539,21 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
@@ -754,7 +784,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -786,7 +816,7 @@
       <c r="B2" s="5">
         <v>1.0</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -812,13 +842,13 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -844,13 +874,13 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -876,13 +906,13 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -908,13 +938,13 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -940,13 +970,13 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -972,13 +1002,13 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -1004,13 +1034,13 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1039,10 +1069,10 @@
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
+      <c r="B10" s="5">
+        <v>2.0</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -1068,13 +1098,13 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5">
-        <v>2.0</v>
-      </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1104,9 +1134,9 @@
         <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1132,13 +1162,13 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1164,13 +1194,13 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="B14" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1196,13 +1226,13 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="B15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1229,12 +1259,12 @@
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1261,12 +1291,12 @@
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1293,12 +1323,12 @@
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1325,12 +1355,12 @@
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="B19" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1359,10 +1389,10 @@
       <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="5">
-        <v>3.0</v>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1389,12 +1419,12 @@
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1421,12 +1451,12 @@
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1452,13 +1482,13 @@
       <c r="Z22" s="3"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="B23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="8"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1485,12 +1515,12 @@
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="B24" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1522,7 +1552,7 @@
       <c r="B25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1554,7 +1584,7 @@
       <c r="B26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1583,10 +1613,10 @@
       <c r="A27" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="5">
-        <v>4.0</v>
+      <c r="B27" s="2" t="s">
+        <v>49</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1613,12 +1643,12 @@
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1645,12 +1675,12 @@
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="2"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1677,12 +1707,12 @@
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1709,12 +1739,12 @@
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1741,12 +1771,12 @@
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="B32" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -1778,7 +1808,7 @@
       <c r="B33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="2"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -1810,7 +1840,7 @@
       <c r="B34" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="2"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -1839,10 +1869,10 @@
       <c r="A35" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B35" s="5">
-        <v>5.0</v>
+      <c r="B35" s="2" t="s">
+        <v>64</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="2"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -1869,12 +1899,12 @@
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B36" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="B36" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -1901,12 +1931,12 @@
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="2"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -1933,12 +1963,12 @@
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -1965,12 +1995,12 @@
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -1997,12 +2027,12 @@
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -2029,12 +2059,12 @@
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="B41" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -2066,7 +2096,7 @@
       <c r="B42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -2093,12 +2123,12 @@
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="2"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -2125,12 +2155,12 @@
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
-      <c r="B44" s="5">
-        <v>6.0</v>
+      <c r="B44" s="10" t="s">
+        <v>81</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="2"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -2157,12 +2187,12 @@
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="2"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -2189,12 +2219,12 @@
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>82</v>
+      <c r="B46" s="11" t="s">
+        <v>85</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="2"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -2221,12 +2251,12 @@
     </row>
     <row r="47">
       <c r="A47" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>84</v>
+      <c r="B47" s="2" t="s">
+        <v>87</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="2"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -2253,12 +2283,12 @@
     </row>
     <row r="48">
       <c r="A48" s="4" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>86</v>
+      <c r="B48" s="9" t="s">
+        <v>89</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="2"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -2285,12 +2315,12 @@
     </row>
     <row r="49">
       <c r="A49" s="4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>88</v>
+      <c r="B49" s="2" t="s">
+        <v>91</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="2"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -2317,12 +2347,12 @@
     </row>
     <row r="50">
       <c r="A50" s="4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="2"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -2349,12 +2379,12 @@
     </row>
     <row r="51">
       <c r="A51" s="4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="2"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -2381,12 +2411,12 @@
     </row>
     <row r="52">
       <c r="A52" s="4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="2"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -2413,12 +2443,12 @@
     </row>
     <row r="53">
       <c r="A53" s="4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>96</v>
+      <c r="B53" s="5">
+        <v>7.0</v>
       </c>
-      <c r="C53" s="3"/>
+      <c r="C53" s="2"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -2444,13 +2474,13 @@
       <c r="Z53" s="3"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="s">
-        <v>97</v>
+      <c r="A54" s="6" t="s">
+        <v>99</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>98</v>
+      <c r="B54" s="7" t="s">
+        <v>100</v>
       </c>
-      <c r="C54" s="3"/>
+      <c r="C54" s="2"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
@@ -2476,13 +2506,13 @@
       <c r="Z54" s="3"/>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="s">
-        <v>99</v>
+      <c r="A55" s="6" t="s">
+        <v>101</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>100</v>
+      <c r="B55" s="7" t="s">
+        <v>102</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="2"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -2508,13 +2538,13 @@
       <c r="Z55" s="3"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="s">
-        <v>101</v>
+      <c r="A56" s="6" t="s">
+        <v>103</v>
       </c>
-      <c r="B56" s="5">
-        <v>7.0</v>
+      <c r="B56" s="7" t="s">
+        <v>104</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="2"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -2540,13 +2570,13 @@
       <c r="Z56" s="3"/>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="s">
-        <v>102</v>
+      <c r="A57" s="6" t="s">
+        <v>105</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>103</v>
+      <c r="B57" s="7" t="s">
+        <v>106</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -2572,13 +2602,13 @@
       <c r="Z57" s="3"/>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="s">
-        <v>104</v>
+      <c r="A58" s="6" t="s">
+        <v>107</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>105</v>
+      <c r="B58" s="7" t="s">
+        <v>108</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" s="2"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -2604,13 +2634,13 @@
       <c r="Z58" s="3"/>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="s">
-        <v>106</v>
+      <c r="A59" s="6" t="s">
+        <v>109</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>107</v>
+      <c r="B59" s="7" t="s">
+        <v>110</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="2"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -2636,13 +2666,13 @@
       <c r="Z59" s="3"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="s">
-        <v>108</v>
+      <c r="A60" s="6" t="s">
+        <v>111</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>109</v>
+      <c r="B60" s="7" t="s">
+        <v>112</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="2"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -2668,13 +2698,13 @@
       <c r="Z60" s="3"/>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="s">
-        <v>110</v>
+      <c r="A61" s="6" t="s">
+        <v>113</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>111</v>
+      <c r="B61" s="7" t="s">
+        <v>114</v>
       </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="2"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -2700,13 +2730,13 @@
       <c r="Z61" s="3"/>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="s">
-        <v>112</v>
+      <c r="A62" s="6" t="s">
+        <v>115</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>113</v>
+      <c r="B62" s="7" t="s">
+        <v>116</v>
       </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="2"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -2733,12 +2763,12 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>115</v>
+      <c r="B63" s="5">
+        <v>8.0</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="2"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -2765,12 +2795,12 @@
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="2"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -2797,12 +2827,12 @@
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
-      <c r="C65" s="3"/>
+      <c r="C65" s="2"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -2829,12 +2859,12 @@
     </row>
     <row r="66">
       <c r="A66" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
-      <c r="B66" s="5">
-        <v>8.0</v>
+      <c r="B66" s="2" t="s">
+        <v>53</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="2"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -2861,12 +2891,12 @@
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="2"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -2893,12 +2923,12 @@
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="2"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -2925,12 +2955,12 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>58</v>
+        <v>128</v>
       </c>
-      <c r="C69" s="3"/>
+      <c r="C69" s="2"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -2957,12 +2987,12 @@
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="2"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -2989,12 +3019,12 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
-      <c r="C71" s="3"/>
+      <c r="C71" s="2"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -3021,12 +3051,12 @@
     </row>
     <row r="72">
       <c r="A72" s="4" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
-      <c r="C72" s="3"/>
+      <c r="C72" s="2"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -3053,12 +3083,12 @@
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>131</v>
+        <v>28</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="2"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -3085,12 +3115,12 @@
     </row>
     <row r="74">
       <c r="A74" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
-      <c r="C74" s="3"/>
+      <c r="C74" s="2"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -3117,12 +3147,12 @@
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>136</v>
+      <c r="B75" s="5">
+        <v>9.0</v>
       </c>
-      <c r="C75" s="3"/>
+      <c r="C75" s="2"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -3148,13 +3178,13 @@
       <c r="Z75" s="3"/>
     </row>
     <row r="76">
-      <c r="A76" s="4" t="s">
-        <v>29</v>
+      <c r="A76" s="6" t="s">
+        <v>139</v>
       </c>
-      <c r="B76" s="2" t="s">
-        <v>137</v>
+      <c r="B76" s="7" t="s">
+        <v>140</v>
       </c>
-      <c r="C76" s="3"/>
+      <c r="C76" s="2"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -3180,13 +3210,13 @@
       <c r="Z76" s="3"/>
     </row>
     <row r="77">
-      <c r="A77" s="4" t="s">
-        <v>138</v>
+      <c r="A77" s="6" t="s">
+        <v>18</v>
       </c>
-      <c r="B77" s="2" t="s">
-        <v>139</v>
+      <c r="B77" s="7" t="s">
+        <v>141</v>
       </c>
-      <c r="C77" s="3"/>
+      <c r="C77" s="2"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -3212,13 +3242,13 @@
       <c r="Z77" s="3"/>
     </row>
     <row r="78">
-      <c r="A78" s="4" t="s">
-        <v>140</v>
+      <c r="A78" s="6" t="s">
+        <v>142</v>
       </c>
-      <c r="B78" s="5">
-        <v>9.0</v>
+      <c r="B78" s="7" t="s">
+        <v>143</v>
       </c>
-      <c r="C78" s="3"/>
+      <c r="C78" s="2"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -3244,13 +3274,13 @@
       <c r="Z78" s="3"/>
     </row>
     <row r="79">
-      <c r="A79" s="4" t="s">
-        <v>141</v>
+      <c r="A79" s="5" t="s">
+        <v>144</v>
       </c>
-      <c r="B79" s="2" t="s">
-        <v>65</v>
+      <c r="B79" s="9" t="s">
+        <v>66</v>
       </c>
-      <c r="C79" s="3"/>
+      <c r="C79" s="2"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -3277,12 +3307,12 @@
     </row>
     <row r="80">
       <c r="A80" s="4" t="s">
-        <v>3</v>
+        <v>145</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>67</v>
+      <c r="B80" s="1" t="s">
+        <v>146</v>
       </c>
-      <c r="C80" s="3"/>
+      <c r="C80" s="2"/>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -3309,12 +3339,12 @@
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>69</v>
+      <c r="B81" s="1" t="s">
+        <v>148</v>
       </c>
-      <c r="C81" s="3"/>
+      <c r="C81" s="2"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -3340,13 +3370,13 @@
       <c r="Z81" s="3"/>
     </row>
     <row r="82">
-      <c r="A82" s="5" t="s">
-        <v>143</v>
+      <c r="A82" s="4" t="s">
+        <v>149</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>71</v>
+      <c r="B82" s="1" t="s">
+        <v>150</v>
       </c>
-      <c r="C82" s="3"/>
+      <c r="C82" s="2"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -3373,12 +3403,12 @@
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>145</v>
+        <v>72</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="2"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -3405,12 +3435,12 @@
     </row>
     <row r="84">
       <c r="A84" s="4" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="2"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -3437,12 +3467,12 @@
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="2"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -3468,12 +3498,8 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86">
-      <c r="A86" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -3500,12 +3526,8 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87">
-      <c r="A87" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
@@ -3532,12 +3554,8 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88">
-      <c r="A88" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>152</v>
-      </c>
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
@@ -3564,8 +3582,8 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -3592,8 +3610,8 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
@@ -3620,8 +3638,8 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -3648,8 +3666,8 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -3676,8 +3694,8 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93">
-      <c r="A93" s="7"/>
-      <c r="B93" s="7"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
@@ -3704,8 +3722,8 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
@@ -3732,8 +3750,8 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
+      <c r="A95" s="12"/>
+      <c r="B95" s="12"/>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
@@ -3760,8 +3778,8 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
@@ -3788,8 +3806,8 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97">
-      <c r="A97" s="7"/>
-      <c r="B97" s="7"/>
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -3816,8 +3834,8 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98">
-      <c r="A98" s="7"/>
-      <c r="B98" s="7"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
@@ -3844,8 +3862,8 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99">
-      <c r="A99" s="7"/>
-      <c r="B99" s="7"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -3872,8 +3890,8 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100">
-      <c r="A100" s="7"/>
-      <c r="B100" s="7"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -3900,8 +3918,8 @@
       <c r="Z100" s="3"/>
     </row>
     <row r="101">
-      <c r="A101" s="7"/>
-      <c r="B101" s="7"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
@@ -3928,8 +3946,8 @@
       <c r="Z101" s="3"/>
     </row>
     <row r="102">
-      <c r="A102" s="7"/>
-      <c r="B102" s="7"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -3956,8 +3974,8 @@
       <c r="Z102" s="3"/>
     </row>
     <row r="103">
-      <c r="A103" s="7"/>
-      <c r="B103" s="7"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="12"/>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
@@ -3984,8 +4002,8 @@
       <c r="Z103" s="3"/>
     </row>
     <row r="104">
-      <c r="A104" s="7"/>
-      <c r="B104" s="7"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="12"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -4012,8 +4030,8 @@
       <c r="Z104" s="3"/>
     </row>
     <row r="105">
-      <c r="A105" s="7"/>
-      <c r="B105" s="7"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
@@ -4040,8 +4058,8 @@
       <c r="Z105" s="3"/>
     </row>
     <row r="106">
-      <c r="A106" s="7"/>
-      <c r="B106" s="7"/>
+      <c r="A106" s="12"/>
+      <c r="B106" s="12"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
@@ -4068,8 +4086,8 @@
       <c r="Z106" s="3"/>
     </row>
     <row r="107">
-      <c r="A107" s="7"/>
-      <c r="B107" s="7"/>
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
@@ -4096,8 +4114,8 @@
       <c r="Z107" s="3"/>
     </row>
     <row r="108">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
@@ -4124,8 +4142,8 @@
       <c r="Z108" s="3"/>
     </row>
     <row r="109">
-      <c r="A109" s="7"/>
-      <c r="B109" s="7"/>
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
@@ -4152,8 +4170,8 @@
       <c r="Z109" s="3"/>
     </row>
     <row r="110">
-      <c r="A110" s="7"/>
-      <c r="B110" s="7"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
@@ -4180,8 +4198,8 @@
       <c r="Z110" s="3"/>
     </row>
     <row r="111">
-      <c r="A111" s="7"/>
-      <c r="B111" s="7"/>
+      <c r="A111" s="12"/>
+      <c r="B111" s="12"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -4208,8 +4226,8 @@
       <c r="Z111" s="3"/>
     </row>
     <row r="112">
-      <c r="A112" s="7"/>
-      <c r="B112" s="7"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
@@ -4236,8 +4254,8 @@
       <c r="Z112" s="3"/>
     </row>
     <row r="113">
-      <c r="A113" s="7"/>
-      <c r="B113" s="7"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -4264,8 +4282,8 @@
       <c r="Z113" s="3"/>
     </row>
     <row r="114">
-      <c r="A114" s="7"/>
-      <c r="B114" s="7"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="12"/>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
@@ -4292,8 +4310,8 @@
       <c r="Z114" s="3"/>
     </row>
     <row r="115">
-      <c r="A115" s="7"/>
-      <c r="B115" s="7"/>
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
@@ -4320,8 +4338,8 @@
       <c r="Z115" s="3"/>
     </row>
     <row r="116">
-      <c r="A116" s="7"/>
-      <c r="B116" s="7"/>
+      <c r="A116" s="12"/>
+      <c r="B116" s="12"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -4348,8 +4366,8 @@
       <c r="Z116" s="3"/>
     </row>
     <row r="117">
-      <c r="A117" s="7"/>
-      <c r="B117" s="7"/>
+      <c r="A117" s="12"/>
+      <c r="B117" s="12"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
@@ -4376,8 +4394,8 @@
       <c r="Z117" s="3"/>
     </row>
     <row r="118">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -4404,8 +4422,8 @@
       <c r="Z118" s="3"/>
     </row>
     <row r="119">
-      <c r="A119" s="7"/>
-      <c r="B119" s="7"/>
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -4432,8 +4450,8 @@
       <c r="Z119" s="3"/>
     </row>
     <row r="120">
-      <c r="A120" s="7"/>
-      <c r="B120" s="7"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -4460,8 +4478,8 @@
       <c r="Z120" s="3"/>
     </row>
     <row r="121">
-      <c r="A121" s="7"/>
-      <c r="B121" s="7"/>
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -4488,8 +4506,8 @@
       <c r="Z121" s="3"/>
     </row>
     <row r="122">
-      <c r="A122" s="7"/>
-      <c r="B122" s="7"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -4516,8 +4534,8 @@
       <c r="Z122" s="3"/>
     </row>
     <row r="123">
-      <c r="A123" s="7"/>
-      <c r="B123" s="7"/>
+      <c r="A123" s="12"/>
+      <c r="B123" s="12"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -4544,8 +4562,8 @@
       <c r="Z123" s="3"/>
     </row>
     <row r="124">
-      <c r="A124" s="7"/>
-      <c r="B124" s="7"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -4572,8 +4590,8 @@
       <c r="Z124" s="3"/>
     </row>
     <row r="125">
-      <c r="A125" s="7"/>
-      <c r="B125" s="7"/>
+      <c r="A125" s="12"/>
+      <c r="B125" s="12"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
@@ -4600,8 +4618,8 @@
       <c r="Z125" s="3"/>
     </row>
     <row r="126">
-      <c r="A126" s="7"/>
-      <c r="B126" s="7"/>
+      <c r="A126" s="12"/>
+      <c r="B126" s="12"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -4628,8 +4646,8 @@
       <c r="Z126" s="3"/>
     </row>
     <row r="127">
-      <c r="A127" s="7"/>
-      <c r="B127" s="7"/>
+      <c r="A127" s="12"/>
+      <c r="B127" s="12"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -4656,8 +4674,8 @@
       <c r="Z127" s="3"/>
     </row>
     <row r="128">
-      <c r="A128" s="7"/>
-      <c r="B128" s="7"/>
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -4684,8 +4702,8 @@
       <c r="Z128" s="3"/>
     </row>
     <row r="129">
-      <c r="A129" s="7"/>
-      <c r="B129" s="7"/>
+      <c r="A129" s="12"/>
+      <c r="B129" s="12"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -4712,8 +4730,8 @@
       <c r="Z129" s="3"/>
     </row>
     <row r="130">
-      <c r="A130" s="7"/>
-      <c r="B130" s="7"/>
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
@@ -4740,8 +4758,8 @@
       <c r="Z130" s="3"/>
     </row>
     <row r="131">
-      <c r="A131" s="7"/>
-      <c r="B131" s="7"/>
+      <c r="A131" s="12"/>
+      <c r="B131" s="12"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
@@ -4768,8 +4786,8 @@
       <c r="Z131" s="3"/>
     </row>
     <row r="132">
-      <c r="A132" s="7"/>
-      <c r="B132" s="7"/>
+      <c r="A132" s="12"/>
+      <c r="B132" s="12"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
@@ -4796,8 +4814,8 @@
       <c r="Z132" s="3"/>
     </row>
     <row r="133">
-      <c r="A133" s="7"/>
-      <c r="B133" s="7"/>
+      <c r="A133" s="12"/>
+      <c r="B133" s="12"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -4824,8 +4842,8 @@
       <c r="Z133" s="3"/>
     </row>
     <row r="134">
-      <c r="A134" s="7"/>
-      <c r="B134" s="7"/>
+      <c r="A134" s="12"/>
+      <c r="B134" s="12"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
@@ -4852,8 +4870,8 @@
       <c r="Z134" s="3"/>
     </row>
     <row r="135">
-      <c r="A135" s="7"/>
-      <c r="B135" s="7"/>
+      <c r="A135" s="12"/>
+      <c r="B135" s="12"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -4880,8 +4898,8 @@
       <c r="Z135" s="3"/>
     </row>
     <row r="136">
-      <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
@@ -4908,8 +4926,8 @@
       <c r="Z136" s="3"/>
     </row>
     <row r="137">
-      <c r="A137" s="7"/>
-      <c r="B137" s="7"/>
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
@@ -4936,8 +4954,8 @@
       <c r="Z137" s="3"/>
     </row>
     <row r="138">
-      <c r="A138" s="7"/>
-      <c r="B138" s="7"/>
+      <c r="A138" s="12"/>
+      <c r="B138" s="12"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -4964,8 +4982,8 @@
       <c r="Z138" s="3"/>
     </row>
     <row r="139">
-      <c r="A139" s="7"/>
-      <c r="B139" s="7"/>
+      <c r="A139" s="12"/>
+      <c r="B139" s="12"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -4992,8 +5010,8 @@
       <c r="Z139" s="3"/>
     </row>
     <row r="140">
-      <c r="A140" s="7"/>
-      <c r="B140" s="7"/>
+      <c r="A140" s="12"/>
+      <c r="B140" s="12"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
@@ -5020,8 +5038,8 @@
       <c r="Z140" s="3"/>
     </row>
     <row r="141">
-      <c r="A141" s="7"/>
-      <c r="B141" s="7"/>
+      <c r="A141" s="12"/>
+      <c r="B141" s="12"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
@@ -5048,8 +5066,8 @@
       <c r="Z141" s="3"/>
     </row>
     <row r="142">
-      <c r="A142" s="7"/>
-      <c r="B142" s="7"/>
+      <c r="A142" s="12"/>
+      <c r="B142" s="12"/>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
@@ -5076,8 +5094,8 @@
       <c r="Z142" s="3"/>
     </row>
     <row r="143">
-      <c r="A143" s="7"/>
-      <c r="B143" s="7"/>
+      <c r="A143" s="12"/>
+      <c r="B143" s="12"/>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
@@ -5104,8 +5122,8 @@
       <c r="Z143" s="3"/>
     </row>
     <row r="144">
-      <c r="A144" s="7"/>
-      <c r="B144" s="7"/>
+      <c r="A144" s="12"/>
+      <c r="B144" s="12"/>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -5132,8 +5150,8 @@
       <c r="Z144" s="3"/>
     </row>
     <row r="145">
-      <c r="A145" s="7"/>
-      <c r="B145" s="7"/>
+      <c r="A145" s="12"/>
+      <c r="B145" s="12"/>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -5160,8 +5178,8 @@
       <c r="Z145" s="3"/>
     </row>
     <row r="146">
-      <c r="A146" s="7"/>
-      <c r="B146" s="7"/>
+      <c r="A146" s="12"/>
+      <c r="B146" s="12"/>
       <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -5188,8 +5206,8 @@
       <c r="Z146" s="3"/>
     </row>
     <row r="147">
-      <c r="A147" s="7"/>
-      <c r="B147" s="7"/>
+      <c r="A147" s="12"/>
+      <c r="B147" s="12"/>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -5216,8 +5234,8 @@
       <c r="Z147" s="3"/>
     </row>
     <row r="148">
-      <c r="A148" s="7"/>
-      <c r="B148" s="7"/>
+      <c r="A148" s="12"/>
+      <c r="B148" s="12"/>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
@@ -5244,8 +5262,8 @@
       <c r="Z148" s="3"/>
     </row>
     <row r="149">
-      <c r="A149" s="7"/>
-      <c r="B149" s="7"/>
+      <c r="A149" s="12"/>
+      <c r="B149" s="12"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
@@ -5272,8 +5290,8 @@
       <c r="Z149" s="3"/>
     </row>
     <row r="150">
-      <c r="A150" s="7"/>
-      <c r="B150" s="7"/>
+      <c r="A150" s="12"/>
+      <c r="B150" s="12"/>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -5300,8 +5318,8 @@
       <c r="Z150" s="3"/>
     </row>
     <row r="151">
-      <c r="A151" s="7"/>
-      <c r="B151" s="7"/>
+      <c r="A151" s="12"/>
+      <c r="B151" s="12"/>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
@@ -5328,8 +5346,8 @@
       <c r="Z151" s="3"/>
     </row>
     <row r="152">
-      <c r="A152" s="7"/>
-      <c r="B152" s="7"/>
+      <c r="A152" s="12"/>
+      <c r="B152" s="12"/>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
@@ -5356,8 +5374,8 @@
       <c r="Z152" s="3"/>
     </row>
     <row r="153">
-      <c r="A153" s="7"/>
-      <c r="B153" s="7"/>
+      <c r="A153" s="12"/>
+      <c r="B153" s="12"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -5384,8 +5402,8 @@
       <c r="Z153" s="3"/>
     </row>
     <row r="154">
-      <c r="A154" s="7"/>
-      <c r="B154" s="7"/>
+      <c r="A154" s="12"/>
+      <c r="B154" s="12"/>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
       <c r="E154" s="3"/>
@@ -5412,8 +5430,8 @@
       <c r="Z154" s="3"/>
     </row>
     <row r="155">
-      <c r="A155" s="7"/>
-      <c r="B155" s="7"/>
+      <c r="A155" s="12"/>
+      <c r="B155" s="12"/>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
       <c r="E155" s="3"/>
@@ -5440,8 +5458,8 @@
       <c r="Z155" s="3"/>
     </row>
     <row r="156">
-      <c r="A156" s="7"/>
-      <c r="B156" s="7"/>
+      <c r="A156" s="12"/>
+      <c r="B156" s="12"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -5468,8 +5486,8 @@
       <c r="Z156" s="3"/>
     </row>
     <row r="157">
-      <c r="A157" s="7"/>
-      <c r="B157" s="7"/>
+      <c r="A157" s="12"/>
+      <c r="B157" s="12"/>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
       <c r="E157" s="3"/>
@@ -5496,8 +5514,8 @@
       <c r="Z157" s="3"/>
     </row>
     <row r="158">
-      <c r="A158" s="7"/>
-      <c r="B158" s="7"/>
+      <c r="A158" s="12"/>
+      <c r="B158" s="12"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -5524,8 +5542,8 @@
       <c r="Z158" s="3"/>
     </row>
     <row r="159">
-      <c r="A159" s="7"/>
-      <c r="B159" s="7"/>
+      <c r="A159" s="12"/>
+      <c r="B159" s="12"/>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
       <c r="E159" s="3"/>
@@ -5552,8 +5570,8 @@
       <c r="Z159" s="3"/>
     </row>
     <row r="160">
-      <c r="A160" s="7"/>
-      <c r="B160" s="7"/>
+      <c r="A160" s="12"/>
+      <c r="B160" s="12"/>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
@@ -5580,8 +5598,8 @@
       <c r="Z160" s="3"/>
     </row>
     <row r="161">
-      <c r="A161" s="7"/>
-      <c r="B161" s="7"/>
+      <c r="A161" s="12"/>
+      <c r="B161" s="12"/>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="E161" s="3"/>
@@ -5608,8 +5626,8 @@
       <c r="Z161" s="3"/>
     </row>
     <row r="162">
-      <c r="A162" s="7"/>
-      <c r="B162" s="7"/>
+      <c r="A162" s="12"/>
+      <c r="B162" s="12"/>
       <c r="C162" s="3"/>
       <c r="D162" s="3"/>
       <c r="E162" s="3"/>
@@ -5636,8 +5654,8 @@
       <c r="Z162" s="3"/>
     </row>
     <row r="163">
-      <c r="A163" s="7"/>
-      <c r="B163" s="7"/>
+      <c r="A163" s="12"/>
+      <c r="B163" s="12"/>
       <c r="C163" s="3"/>
       <c r="D163" s="3"/>
       <c r="E163" s="3"/>
@@ -5664,8 +5682,8 @@
       <c r="Z163" s="3"/>
     </row>
     <row r="164">
-      <c r="A164" s="7"/>
-      <c r="B164" s="7"/>
+      <c r="A164" s="12"/>
+      <c r="B164" s="12"/>
       <c r="C164" s="3"/>
       <c r="D164" s="3"/>
       <c r="E164" s="3"/>
@@ -5692,8 +5710,8 @@
       <c r="Z164" s="3"/>
     </row>
     <row r="165">
-      <c r="A165" s="7"/>
-      <c r="B165" s="7"/>
+      <c r="A165" s="12"/>
+      <c r="B165" s="12"/>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
       <c r="E165" s="3"/>
@@ -5720,8 +5738,8 @@
       <c r="Z165" s="3"/>
     </row>
     <row r="166">
-      <c r="A166" s="7"/>
-      <c r="B166" s="7"/>
+      <c r="A166" s="12"/>
+      <c r="B166" s="12"/>
       <c r="C166" s="3"/>
       <c r="D166" s="3"/>
       <c r="E166" s="3"/>
@@ -5748,8 +5766,8 @@
       <c r="Z166" s="3"/>
     </row>
     <row r="167">
-      <c r="A167" s="7"/>
-      <c r="B167" s="7"/>
+      <c r="A167" s="12"/>
+      <c r="B167" s="12"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -5776,8 +5794,8 @@
       <c r="Z167" s="3"/>
     </row>
     <row r="168">
-      <c r="A168" s="7"/>
-      <c r="B168" s="7"/>
+      <c r="A168" s="12"/>
+      <c r="B168" s="12"/>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
@@ -5804,8 +5822,8 @@
       <c r="Z168" s="3"/>
     </row>
     <row r="169">
-      <c r="A169" s="7"/>
-      <c r="B169" s="7"/>
+      <c r="A169" s="12"/>
+      <c r="B169" s="12"/>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
@@ -5832,8 +5850,8 @@
       <c r="Z169" s="3"/>
     </row>
     <row r="170">
-      <c r="A170" s="7"/>
-      <c r="B170" s="7"/>
+      <c r="A170" s="12"/>
+      <c r="B170" s="12"/>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
       <c r="E170" s="3"/>
@@ -5860,8 +5878,8 @@
       <c r="Z170" s="3"/>
     </row>
     <row r="171">
-      <c r="A171" s="7"/>
-      <c r="B171" s="7"/>
+      <c r="A171" s="12"/>
+      <c r="B171" s="12"/>
       <c r="C171" s="3"/>
       <c r="D171" s="3"/>
       <c r="E171" s="3"/>
@@ -5888,8 +5906,8 @@
       <c r="Z171" s="3"/>
     </row>
     <row r="172">
-      <c r="A172" s="7"/>
-      <c r="B172" s="7"/>
+      <c r="A172" s="12"/>
+      <c r="B172" s="12"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -5916,8 +5934,8 @@
       <c r="Z172" s="3"/>
     </row>
     <row r="173">
-      <c r="A173" s="7"/>
-      <c r="B173" s="7"/>
+      <c r="A173" s="12"/>
+      <c r="B173" s="12"/>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
@@ -5944,8 +5962,8 @@
       <c r="Z173" s="3"/>
     </row>
     <row r="174">
-      <c r="A174" s="7"/>
-      <c r="B174" s="7"/>
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
       <c r="E174" s="3"/>
@@ -5972,8 +5990,8 @@
       <c r="Z174" s="3"/>
     </row>
     <row r="175">
-      <c r="A175" s="7"/>
-      <c r="B175" s="7"/>
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -6000,8 +6018,8 @@
       <c r="Z175" s="3"/>
     </row>
     <row r="176">
-      <c r="A176" s="7"/>
-      <c r="B176" s="7"/>
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -29015,90 +29033,6 @@
       <c r="Y997" s="3"/>
       <c r="Z997" s="3"/>
     </row>
-    <row r="998">
-      <c r="A998" s="3"/>
-      <c r="B998" s="3"/>
-      <c r="C998" s="3"/>
-      <c r="D998" s="3"/>
-      <c r="E998" s="3"/>
-      <c r="F998" s="3"/>
-      <c r="G998" s="3"/>
-      <c r="H998" s="3"/>
-      <c r="I998" s="3"/>
-      <c r="J998" s="3"/>
-      <c r="K998" s="3"/>
-      <c r="L998" s="3"/>
-      <c r="M998" s="3"/>
-      <c r="N998" s="3"/>
-      <c r="O998" s="3"/>
-      <c r="P998" s="3"/>
-      <c r="Q998" s="3"/>
-      <c r="R998" s="3"/>
-      <c r="S998" s="3"/>
-      <c r="T998" s="3"/>
-      <c r="U998" s="3"/>
-      <c r="V998" s="3"/>
-      <c r="W998" s="3"/>
-      <c r="X998" s="3"/>
-      <c r="Y998" s="3"/>
-      <c r="Z998" s="3"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="3"/>
-      <c r="B999" s="3"/>
-      <c r="C999" s="3"/>
-      <c r="D999" s="3"/>
-      <c r="E999" s="3"/>
-      <c r="F999" s="3"/>
-      <c r="G999" s="3"/>
-      <c r="H999" s="3"/>
-      <c r="I999" s="3"/>
-      <c r="J999" s="3"/>
-      <c r="K999" s="3"/>
-      <c r="L999" s="3"/>
-      <c r="M999" s="3"/>
-      <c r="N999" s="3"/>
-      <c r="O999" s="3"/>
-      <c r="P999" s="3"/>
-      <c r="Q999" s="3"/>
-      <c r="R999" s="3"/>
-      <c r="S999" s="3"/>
-      <c r="T999" s="3"/>
-      <c r="U999" s="3"/>
-      <c r="V999" s="3"/>
-      <c r="W999" s="3"/>
-      <c r="X999" s="3"/>
-      <c r="Y999" s="3"/>
-      <c r="Z999" s="3"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="3"/>
-      <c r="B1000" s="3"/>
-      <c r="C1000" s="3"/>
-      <c r="D1000" s="3"/>
-      <c r="E1000" s="3"/>
-      <c r="F1000" s="3"/>
-      <c r="G1000" s="3"/>
-      <c r="H1000" s="3"/>
-      <c r="I1000" s="3"/>
-      <c r="J1000" s="3"/>
-      <c r="K1000" s="3"/>
-      <c r="L1000" s="3"/>
-      <c r="M1000" s="3"/>
-      <c r="N1000" s="3"/>
-      <c r="O1000" s="3"/>
-      <c r="P1000" s="3"/>
-      <c r="Q1000" s="3"/>
-      <c r="R1000" s="3"/>
-      <c r="S1000" s="3"/>
-      <c r="T1000" s="3"/>
-      <c r="U1000" s="3"/>
-      <c r="V1000" s="3"/>
-      <c r="W1000" s="3"/>
-      <c r="X1000" s="3"/>
-      <c r="Y1000" s="3"/>
-      <c r="Z1000" s="3"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
